--- a/Externaldata/Salel_Of_Seed.xlsx
+++ b/Externaldata/Salel_Of_Seed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8DED0E-3BC5-4EFA-A4B2-BBB50F2B93C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33B588-27F9-4308-BCE2-CB18A08EAA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>District</t>
   </si>
@@ -119,10 +119,13 @@
     <t>Ganjam</t>
   </si>
   <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Successfully verify</t>
+    <t>Successfu</t>
+  </si>
+  <si>
+    <t>Not Verified</t>
+  </si>
+  <si>
+    <t>Successfully Verified</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -527,7 +530,7 @@
     <col min="1" max="1" customWidth="true" width="18.109375"/>
     <col min="2" max="2" customWidth="true" width="17.77734375"/>
     <col min="3" max="3" customWidth="true" width="15.21875"/>
-    <col min="4" max="4" customWidth="true" width="12.0"/>
+    <col min="4" max="4" customWidth="true" width="20.44140625"/>
     <col min="5" max="5" customWidth="true" width="18.5546875"/>
     <col min="6" max="6" customWidth="true" width="20.44140625"/>
     <col min="7" max="7" customWidth="true" width="13.77734375"/>
@@ -671,7 +674,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="4" t="s">

--- a/Externaldata/Salel_Of_Seed.xlsx
+++ b/Externaldata/Salel_Of_Seed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33B588-27F9-4308-BCE2-CB18A08EAA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CD49E5-C818-447A-AAB7-4B6252A51915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>District</t>
   </si>
@@ -119,10 +119,7 @@
     <t>Ganjam</t>
   </si>
   <si>
-    <t>Successfu</t>
-  </si>
-  <si>
-    <t>Not Verified</t>
+    <t>Succ</t>
   </si>
   <si>
     <t>Successfully Verified</t>
@@ -674,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="4" t="s">

--- a/Externaldata/Salel_Of_Seed.xlsx
+++ b/Externaldata/Salel_Of_Seed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CD49E5-C818-447A-AAB7-4B6252A51915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480DAA7-6BB1-4097-8496-75BE11DE4E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Ganjam</t>
   </si>
   <si>
-    <t>Succ</t>
+    <t>Successfully</t>
   </si>
   <si>
     <t>Successfully Verified</t>

--- a/Externaldata/Salel_Of_Seed.xlsx
+++ b/Externaldata/Salel_Of_Seed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480DAA7-6BB1-4097-8496-75BE11DE4E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E9628-350D-4DF3-A541-C2548ED4EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>District</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Ganjam</t>
-  </si>
-  <si>
-    <t>Successfully</t>
   </si>
   <si>
     <t>Successfully Verified</t>
@@ -518,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +527,7 @@
     <col min="4" max="4" customWidth="true" width="20.44140625"/>
     <col min="5" max="5" customWidth="true" width="18.5546875"/>
     <col min="6" max="6" customWidth="true" width="20.44140625"/>
-    <col min="7" max="7" customWidth="true" width="13.77734375"/>
+    <col min="7" max="7" customWidth="true" width="19.77734375"/>
     <col min="8" max="8" customWidth="true" width="15.44140625"/>
     <col min="9" max="9" customWidth="true" width="14.77734375"/>
     <col min="10" max="10" customWidth="true" width="15.21875"/>
@@ -671,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="4" t="s">

--- a/Externaldata/Salel_Of_Seed.xlsx
+++ b/Externaldata/Salel_Of_Seed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E9628-350D-4DF3-A541-C2548ED4EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4860F941-4D6F-40DE-83C4-669F511D5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
     <col min="6" max="6" customWidth="true" width="20.44140625"/>
     <col min="7" max="7" customWidth="true" width="19.77734375"/>
     <col min="8" max="8" customWidth="true" width="15.44140625"/>
-    <col min="9" max="9" customWidth="true" width="14.77734375"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625"/>
     <col min="10" max="10" customWidth="true" width="15.21875"/>
     <col min="11" max="11" customWidth="true" width="18.0"/>
     <col min="12" max="12" customWidth="true" width="15.44140625"/>

--- a/Externaldata/Salel_Of_Seed.xlsx
+++ b/Externaldata/Salel_Of_Seed.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4860F941-4D6F-40DE-83C4-669F511D5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AEE4CD-69FA-4F7D-B31B-9CDD5DE1BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>District</t>
   </si>
@@ -68,9 +68,6 @@
     <t>PACS Password</t>
   </si>
   <si>
-    <t>PACS Submit Status</t>
-  </si>
-  <si>
     <t>ADMIN Approved/Rejected status</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t>DRCS Approved/Rejected status</t>
   </si>
   <si>
-    <t>admin194@gmail.com</t>
-  </si>
-  <si>
-    <t>Cams@1234</t>
-  </si>
-  <si>
     <t>payal@oasys.com</t>
   </si>
   <si>
@@ -113,20 +104,38 @@
     <t>Sashiroul@gmail.com</t>
   </si>
   <si>
-    <t>Abhayapur SCS</t>
-  </si>
-  <si>
-    <t>Ganjam</t>
-  </si>
-  <si>
-    <t>Successfully Verified</t>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Jharsuguda</t>
+  </si>
+  <si>
+    <t>Sasi</t>
+  </si>
+  <si>
+    <t>sasi11@gmail.com</t>
+  </si>
+  <si>
+    <t>Siba@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacs Status </t>
+  </si>
+  <si>
+    <t>Crop type</t>
+  </si>
+  <si>
+    <t>rabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry date 
+(dd-mm-yy)                      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -206,6 +215,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,37 +525,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.109375"/>
-    <col min="2" max="2" customWidth="true" width="17.77734375"/>
-    <col min="3" max="3" customWidth="true" width="15.21875"/>
-    <col min="4" max="4" customWidth="true" width="20.44140625"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875"/>
-    <col min="6" max="6" customWidth="true" width="20.44140625"/>
-    <col min="7" max="7" customWidth="true" width="19.77734375"/>
-    <col min="8" max="8" customWidth="true" width="15.44140625"/>
-    <col min="9" max="9" customWidth="true" width="16.6640625"/>
-    <col min="10" max="10" customWidth="true" width="15.21875"/>
-    <col min="11" max="11" customWidth="true" width="18.0"/>
-    <col min="12" max="12" customWidth="true" width="15.44140625"/>
-    <col min="13" max="13" customWidth="true" width="24.77734375"/>
-    <col min="14" max="14" customWidth="true" width="28.77734375"/>
-    <col min="15" max="15" customWidth="true" width="19.77734375"/>
-    <col min="16" max="16" customWidth="true" width="20.5546875"/>
-    <col min="17" max="17" customWidth="true" width="19.6640625"/>
-    <col min="18" max="18" customWidth="true" width="16.33203125"/>
-    <col min="19" max="20" customWidth="true" width="18.5546875"/>
-    <col min="25" max="25" customWidth="true" width="18.21875"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="24.77734375" customWidth="1"/>
+    <col min="16" max="16" width="28.77734375" customWidth="1"/>
+    <col min="17" max="17" width="29.6640625" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="22" width="18.5546875" customWidth="1"/>
+    <col min="25" max="25" width="22.6640625" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" customWidth="1"/>
+    <col min="28" max="28" width="19.5546875" customWidth="1"/>
+    <col min="29" max="29" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -560,101 +575,107 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45556</v>
+      </c>
+      <c r="H2" s="3">
         <v>155</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>50</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3">
-        <v>20</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <v>20</v>
       </c>
@@ -667,36 +688,42 @@
       <c r="N2" s="3">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4" t="s">
+      <c r="O2" s="3">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{521BB411-A4BE-41DA-91DB-C08A67DD0ED0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>